--- a/data/trans_camb/P25_N_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9,32</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,53</t>
+          <t>-3,7; 11,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,04</t>
+          <t>-4,8; 10,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 14,5</t>
+          <t>3,83; 22,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 11,36</t>
+          <t>-14,69; 7,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 10,27</t>
+          <t>-9,3; 10,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 22,4</t>
+          <t>-7,4; 10,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 8,68</t>
+          <t>-9,95; 9,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 7,71</t>
+          <t>-4,48; 15,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 14,9</t>
+          <t>-13,07; 8,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 5,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 9,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 8,27</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 16,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 5,17</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 6,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,67%</t>
+          <t>136,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-18,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>63,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-9,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 203,83</t>
+          <t>-37,84; 189,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,91; 143,79</t>
+          <t>-46,46; 190,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 274,53</t>
+          <t>24,47; 405,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 75,1</t>
+          <t>-56,39; 50,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 60,27</t>
+          <t>-46,51; 98,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 132,37</t>
+          <t>-28,83; 64,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 73,15</t>
+          <t>-37,97; 59,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 65,76</t>
+          <t>-18,19; 100,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 125,08</t>
+          <t>-39,0; 39,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,97; 25,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 77,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-25,76; 65,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 138,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; 26,76</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 34,54</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,13</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-12,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,97</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 3,44</t>
+          <t>-10,89; 4,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 12,16</t>
+          <t>-7,69; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,32</t>
+          <t>-3,52; 15,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,64; -2,92</t>
+          <t>-11,46; 9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,89; -0,08</t>
+          <t>-14,0; 7,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 9,33</t>
+          <t>-21,93; -4,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -1,57</t>
+          <t>-18,18; 0,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 2,41</t>
+          <t>-10,64; 10,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 9,84</t>
+          <t>-4,77; 15,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 16,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; -1,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 3,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 9,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 10,37</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 8,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,29%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,1%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,31%</t>
+          <t>-14,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,69%</t>
+          <t>-35,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,2%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-30,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 29,08</t>
+          <t>-52,38; 46,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 99,66</t>
+          <t>-40,42; 84,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 136,35</t>
+          <t>-19,41; 143,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,2; -9,2</t>
+          <t>-43,15; 64,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,62; -0,31</t>
+          <t>-48,92; 43,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 31,39</t>
+          <t>-51,67; -13,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,07; -8,16</t>
+          <t>-44,1; 3,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 11,21</t>
+          <t>-25,97; 32,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 44,08</t>
+          <t>-11,9; 50,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 54,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-47,78; -6,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,64; 14,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; 46,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 43,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 33,77</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,52</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,26</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 3,24</t>
+          <t>-12,13; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 7,95</t>
+          <t>-8,0; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 10,79</t>
+          <t>-5,08; 11,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 5,76</t>
+          <t>-1,56; 17,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 7,03</t>
+          <t>-2,3; 17,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 10,96</t>
+          <t>-7,71; 6,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,67</t>
+          <t>-6,23; 7,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,22</t>
+          <t>5,14; 20,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,98</t>
+          <t>-7,61; 11,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 20,46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 3,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 6,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 14,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 11,21</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 16,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 18,18</t>
+          <t>-45,35; 18,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 45,38</t>
+          <t>-31,47; 48,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 59,1</t>
+          <t>-20,77; 68,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 19,06</t>
+          <t>-5,32; 83,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 22,58</t>
+          <t>-7,95; 79,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 34,47</t>
+          <t>-19,94; 21,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 10,21</t>
+          <t>-15,69; 24,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 20,48</t>
+          <t>13,09; 67,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 30,83</t>
+          <t>-14,58; 25,01</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 62,33</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 11,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 24,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 54,19</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 32,49</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 56,59</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 8,71</t>
+          <t>-8,61; 7,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 13,19</t>
+          <t>-3,86; 12,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 20,07</t>
+          <t>2,99; 19,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 5,54</t>
+          <t>-5,55; 14,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 12,69</t>
+          <t>-5,23; 15,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 11,34</t>
+          <t>-10,95; 4,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 4,67</t>
+          <t>-3,63; 11,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,4</t>
+          <t>0,6; 16,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 11,49</t>
+          <t>-8,27; 8,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 14,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 3,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 9,56</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 16,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 8,54</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 12,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 33,31</t>
+          <t>-24,01; 27,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 48,39</t>
+          <t>-10,96; 44,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 76,38</t>
+          <t>8,35; 73,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 11,87</t>
+          <t>-11,7; 37,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 27,32</t>
+          <t>-10,95; 44,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 24,49</t>
+          <t>-19,73; 10,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 12,41</t>
+          <t>-6,67; 24,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 27,04</t>
+          <t>1,3; 34,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 30,01</t>
+          <t>-12,71; 14,42</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 30,75</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-16,24; 10,22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 24,81</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 42,5</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 17,64</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 28,17</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11,76</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>-1,92</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>13,34</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>15,19</t>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 7,87</t>
+          <t>-11,41; 6,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 16,2</t>
+          <t>-2,22; 16,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,41; 26,67</t>
+          <t>-2,77; 17,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 6,73</t>
+          <t>1,91; 22,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 10,68</t>
+          <t>-8,59; 11,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 21,94</t>
+          <t>-9,87; 8,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,43</t>
+          <t>-6,49; 10,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 11,3</t>
+          <t>-0,49; 18,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,75; 21,77</t>
+          <t>-7,53; 11,44</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 5,88</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 4,34</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 10,82</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 15,09</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 12,94</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 5,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t>-3,54%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>21,55%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>28,14%</t>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 19,8</t>
+          <t>-21,95; 17,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 39,98</t>
+          <t>-3,92; 42,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,51; 66,22</t>
+          <t>-5,49; 42,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 12,28</t>
+          <t>3,46; 47,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 19,06</t>
+          <t>-12,62; 19,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,28; 38,89</t>
+          <t>-15,06; 13,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 9,18</t>
+          <t>-9,81; 18,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 22,2</t>
+          <t>-0,74; 31,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,93; 43,45</t>
+          <t>-10,06; 18,12</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-15,46; 7,89</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 8,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 21,36</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 30,23</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 21,99</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 8,2</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 11,86</t>
+          <t>-12,23; 10,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 16,98</t>
+          <t>-6,6; 15,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 16,7</t>
+          <t>-9,9; 14,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,53; -0,25</t>
+          <t>-17,14; 6,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 9,59</t>
+          <t>-16,74; 6,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 8,19</t>
+          <t>-15,61; 0,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 2,79</t>
+          <t>-6,87; 7,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 9,72</t>
+          <t>-9,46; 8,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 9,18</t>
+          <t>-11,16; 7,86</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 14,09</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 2,86</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 7,96</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 8,3</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 5,37</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 7,84</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-7,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-1,77%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 21,88</t>
+          <t>-18,89; 18,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 32,78</t>
+          <t>-10,31; 27,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 31,67</t>
+          <t>-15,11; 26,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -0,71</t>
+          <t>-24,72; 10,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 12,75</t>
+          <t>-24,41; 10,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 10,48</t>
+          <t>-18,87; -0,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 4,13</t>
+          <t>-8,31; 10,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 14,4</t>
+          <t>-11,43; 10,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 13,83</t>
+          <t>-13,68; 10,33</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 20,87</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-15,35; 3,81</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 11,69</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 12,29</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; 7,76</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 11,72</t>
         </is>
       </c>
     </row>
@@ -1933,42 +2701,72 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,62</t>
+          <t>-5,31; 2,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,71</t>
+          <t>-0,96; 6,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 12,01</t>
+          <t>3,33; 12,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -0,65</t>
+          <t>-2,8; 7,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,88</t>
+          <t>-3,31; 6,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,43</t>
+          <t>-8,23; -0,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,2</t>
+          <t>-4,34; 2,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,05</t>
+          <t>2,2; 10,03</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,81</t>
+          <t>-2,9; 5,62</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 7,63</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; -0,43</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,03</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 9,72</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,17</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 5,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 9,28</t>
+          <t>-16,42; 7,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 23,95</t>
+          <t>-2,89; 24,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>9,45; 42,85</t>
+          <t>10,36; 42,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -1,44</t>
+          <t>-6,84; 20,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 8,36</t>
+          <t>-7,95; 16,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,72; 19,75</t>
+          <t>-15,94; -1,25</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -0,52</t>
+          <t>-8,47; 6,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 10,49</t>
+          <t>4,32; 21,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>6,03; 22,91</t>
+          <t>-4,99; 10,49</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 14,87</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; -0,96</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 10,21</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 25,35</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 11,45</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 12,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
